--- a/data/output/FV2310_FV2304/REMADV/33003.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="242">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="242">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -912,6 +912,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U99" totalsRowShown="0">
+  <autoFilter ref="A1:U99"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,7 +1231,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5745,5 +5778,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/REMADV/33003.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="338">
   <si>
     <t>#</t>
   </si>
@@ -5506,9 +5506,7 @@
         <v>181</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>37</v>
       </c>
@@ -5562,9 +5560,7 @@
       <c r="K82" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="L82" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>37</v>
       </c>
@@ -5666,9 +5662,7 @@
         <v>181</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -5751,50 +5745,48 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K86" s="5" t="s">
+      <c r="K86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L86" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="V86" s="5" t="s">
+      <c r="V86" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5826,9 +5818,7 @@
         <v>181</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -5882,9 +5872,7 @@
       <c r="K88" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -5986,9 +5974,7 @@
         <v>181</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>40</v>
       </c>
@@ -6042,9 +6028,7 @@
       <c r="K91" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>40</v>
       </c>
@@ -6071,44 +6055,42 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M92" s="5" t="s">
+      <c r="K92" s="2"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5" t="s">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6136,9 +6118,7 @@
         <v>181</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>41</v>
       </c>
@@ -6163,44 +6143,42 @@
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M94" s="5" t="s">
+      <c r="K94" s="2"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5" t="s">
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V94" s="5"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -6228,9 +6206,7 @@
         <v>181</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>42</v>
       </c>
@@ -6280,9 +6256,7 @@
       <c r="K96" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="L96" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>42</v>
       </c>
@@ -6307,44 +6281,42 @@
       </c>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M97" s="5" t="s">
+      <c r="K97" s="2"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5" t="s">
+      <c r="N97" s="2"/>
+      <c r="O97" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5" t="s">
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V97" s="5"/>
+      <c r="V97" s="2"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6370,9 +6342,7 @@
         <v>181</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>43</v>
       </c>
@@ -6418,9 +6388,7 @@
         <v>181</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>43</v>
       </c>

--- a/data/output/FV2310_FV2304/REMADV/33003.xlsx
+++ b/data/output/FV2310_FV2304/REMADV/33003.xlsx
@@ -1655,7 +1655,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2749,7 +2749,7 @@
         <v>204</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4693,7 +4693,7 @@
         <v>208</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4845,7 +4845,7 @@
         <v>210</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5431,24 +5431,24 @@
       <c r="V79" s="9"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>194</v>
       </c>
       <c r="K80" s="6" t="s">
@@ -5457,21 +5457,21 @@
       <c r="L80" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="O80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>194</v>
       </c>
       <c r="V80" s="6" t="s">
@@ -5587,23 +5587,23 @@
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="6" t="s">
         <v>196</v>
       </c>
@@ -5613,20 +5613,20 @@
       <c r="L83" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="M83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O83" s="5" t="s">
+      <c r="O83" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
       <c r="U83" s="6" t="s">
         <v>236</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>216</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -5899,23 +5899,23 @@
       </c>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
       <c r="J89" s="6" t="s">
         <v>200</v>
       </c>
@@ -5925,20 +5925,20 @@
       <c r="L89" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N89" s="5" t="s">
+      <c r="N89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O89" s="5" t="s">
+      <c r="O89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
       <c r="U89" s="6" t="s">
         <v>238</v>
       </c>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N94" s="2"/>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2"/>
